--- a/登録用紙/2023年度生徒情報登録用紙.xlsx
+++ b/登録用紙/2023年度生徒情報登録用紙.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I999"/>
+  <dimension ref="A2:S999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
       </c>
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="1" t="n"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>入力が終わったら名前を変えずに”名前を付けて保存”をして”登録用紙”フォルダの中の”作成済み生徒情報”に保存してください</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="inlineStr">
@@ -6494,11 +6499,12 @@
       <c r="I999" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:B8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="K4:S4"/>
     <mergeCell ref="F4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/登録用紙/2023年度生徒情報登録用紙.xlsx
+++ b/登録用紙/2023年度生徒情報登録用紙.xlsx
@@ -501,7 +501,7 @@
       <c r="I4" s="1" t="n"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>入力が終わったら名前を変えずに”名前を付けて保存”をして”登録用紙”フォルダの中の”作成済み生徒情報”に保存してください</t>
+          <t>入力が終わったら名前を変えずに”名前を付けて保存”をして</t>
         </is>
       </c>
     </row>
@@ -518,6 +518,11 @@
       </c>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>”登録用紙”フォルダの中の”作成済み生徒情報”に保存してください</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="C6" s="1" t="n"/>
@@ -6499,12 +6504,13 @@
       <c r="I999" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A4:B8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="K5:S5"/>
     <mergeCell ref="F4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
